--- a/biology/Zoologie/Bengali_vert/Bengali_vert.xlsx
+++ b/biology/Zoologie/Bengali_vert/Bengali_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amandava formosa
 Le Bengali vert (Amandava formosa) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10 cm de longueur. Il présente un léger dimorphisme sexuel.
 Le mâle a les parties supérieures vert olive avec des reflets dorés sur le croupion, la queue noire et les parties inférieures jaune verdâtre avec les flancs striés de vert et de blanc.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le centre de l'Inde.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit principalement dans le centre de l'Inde où elle peuple les milieux couverts de hautes herbes, les champs de canne à sucre et d'autres cultures mais aussi les prairies sèches et autres habitats ouverts avec arbres et buissons près de l'eau.
 </t>
@@ -608,7 +626,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau construit un nid en boule.
 </t>
